--- a/lekirbot PCB/Pin Assignment.xlsx
+++ b/lekirbot PCB/Pin Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fauzan/Documents/GitHub/tinkercode_extension_generator/lekirbot PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFBF138-B578-B747-9188-3EF88F430581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785C1A60-2452-134E-989A-D985277C37C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="740" windowWidth="14700" windowHeight="17240" xr2:uid="{9CDA4CAE-07E3-0942-B76F-254279F30715}"/>
+    <workbookView xWindow="6360" yWindow="740" windowWidth="14700" windowHeight="17200" xr2:uid="{9CDA4CAE-07E3-0942-B76F-254279F30715}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Function</t>
   </si>
@@ -84,12 +84,6 @@
   </si>
   <si>
     <t>External Pin 2</t>
-  </si>
-  <si>
-    <t>IO9</t>
-  </si>
-  <si>
-    <t>IO10</t>
   </si>
   <si>
     <t>Line Sensor 1</t>
@@ -202,9 +196,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +236,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -348,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -490,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,7 +495,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,8 +586,8 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+      <c r="B8" s="1">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -603,8 +597,8 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+      <c r="B9" s="1">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -612,112 +606,112 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
